--- a/biology/Zoologie/Hydrolaetare/Hydrolaetare.xlsx
+++ b/biology/Zoologie/Hydrolaetare/Hydrolaetare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrolaetare est un genre d'amphibiens de la famille des Leptodactylidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrolaetare est un genre d'amphibiens de la famille des Leptodactylidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 3 espèces de ce genre se rencontrent en Bolivie, en Colombie, au Pérou, au Brésil et en Guyane[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 3 espèces de ce genre se rencontrent en Bolivie, en Colombie, au Pérou, au Brésil et en Guyane.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (10 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (10 juin 2017) :
 Hydrolaetare caparu Jansen, Gonzales-Álvarez &amp; Köhler, 2007
 Hydrolaetare dantasi (Bokermann, 1959)
 Hydrolaetare schmidti (Cochran &amp; Goin, 1959)</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gallardo, 1963 : Hydrolaetare, nuevo genero de Leptodactylidae (Amphibia) Neotropical. Neotropica, vol. 9, p. 42–48.</t>
         </is>
